--- a/documentation/Sourcecode + System/Platzierung Assets.xlsx
+++ b/documentation/Sourcecode + System/Platzierung Assets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\paamestia\documentation\Sourcecode + System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D56AA46-55EC-4478-8CC6-DD482D511CB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3BE485-3104-4469-A106-D3D66241E432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
   <si>
     <t>Nummer</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>Turm 4+5</t>
+  </si>
+  <si>
+    <t>relativ zur oberen linke Ecke des turmes</t>
   </si>
 </sst>
 </file>
@@ -441,9 +444,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -662,10 +665,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -722,10 +725,10 @@
         <f>H2</f>
         <v>0</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="12"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
@@ -1684,13 +1687,15 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="13" t="s">
+      <c r="M29" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="13" t="s">
+      <c r="N29" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="O29" s="3"/>
+      <c r="O29" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
